--- a/data/trans_dic/P7_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P7_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,88; 15,12</t>
+          <t>8,51; 15,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,69; 14,09</t>
+          <t>7,9; 14,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,51; 11,04</t>
+          <t>5,46; 10,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,62; 16,94</t>
+          <t>10,52; 17,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,44; 21,05</t>
+          <t>12,79; 21,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,98; 13,93</t>
+          <t>6,8; 13,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,82; 13,75</t>
+          <t>6,81; 13,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,98; 16,01</t>
+          <t>11,18; 16,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,11; 16,2</t>
+          <t>11,08; 16,15</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8,08; 13,02</t>
+          <t>8,03; 12,72</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,85; 11,28</t>
+          <t>6,7; 10,95</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,77; 15,67</t>
+          <t>11,67; 15,74</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,83; 14,61</t>
+          <t>7,91; 14,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,2; 14,92</t>
+          <t>7,97; 14,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,24; 15,31</t>
+          <t>8,41; 14,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,49; 14,97</t>
+          <t>9,63; 15,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,75; 19,2</t>
+          <t>12,16; 19,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,33; 18,58</t>
+          <t>10,51; 18,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,97; 17,46</t>
+          <t>10,01; 17,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,64; 17,26</t>
+          <t>11,49; 16,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,77; 15,9</t>
+          <t>10,84; 15,77</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,93; 15,02</t>
+          <t>9,95; 15,16</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,08; 15,1</t>
+          <t>9,99; 14,85</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,18; 15,36</t>
+          <t>11,08; 15,1</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,44; 19,6</t>
+          <t>13,51; 19,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,83; 26,05</t>
+          <t>18,97; 25,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,3; 21,04</t>
+          <t>14,26; 20,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,43; 22,36</t>
+          <t>4,99; 22,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,27; 36,13</t>
+          <t>21,15; 35,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,79; 29,81</t>
+          <t>18,64; 29,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>19,86; 35,45</t>
+          <t>20,85; 36,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>23,54; 34,51</t>
+          <t>23,1; 34,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,46; 22,06</t>
+          <t>16,12; 21,92</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>20,11; 26,16</t>
+          <t>20,28; 25,88</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,69; 23,11</t>
+          <t>17,11; 23,26</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,11; 24,03</t>
+          <t>6,56; 24,29</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,85; 21,16</t>
+          <t>16,95; 21,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,72; 22,6</t>
+          <t>17,56; 22,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,0; 21,91</t>
+          <t>17,12; 21,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,6; 24,78</t>
+          <t>19,45; 24,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,16; 27,49</t>
+          <t>21,21; 27,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,91; 25,39</t>
+          <t>18,76; 24,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,16; 23,01</t>
+          <t>17,4; 22,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,29; 21,32</t>
+          <t>8,46; 21,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,1; 22,87</t>
+          <t>19,38; 22,99</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,67; 22,62</t>
+          <t>18,81; 22,62</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,66; 21,46</t>
+          <t>17,69; 21,34</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,77; 22,21</t>
+          <t>14,13; 22,14</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,76; 27,73</t>
+          <t>18,82; 28,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,1; 21,98</t>
+          <t>15,27; 22,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>18,9; 25,5</t>
+          <t>18,43; 25,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>19,49; 27,14</t>
+          <t>19,3; 27,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>28,75; 36,97</t>
+          <t>29,07; 37,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>32,6; 40,08</t>
+          <t>33,0; 40,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>28,05; 35,04</t>
+          <t>28,04; 35,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,34; 34,38</t>
+          <t>22,59; 34,83</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>25,98; 32,28</t>
+          <t>26,17; 32,18</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>26,77; 32,04</t>
+          <t>26,52; 31,78</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>24,65; 29,45</t>
+          <t>24,46; 29,61</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>23,22; 30,66</t>
+          <t>22,64; 30,4</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,12; 6,74</t>
+          <t>2,11; 6,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,62; 8,84</t>
+          <t>2,55; 8,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,65; 5,48</t>
+          <t>1,68; 5,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,62; 6,07</t>
+          <t>1,57; 5,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>33,43; 38,66</t>
+          <t>33,24; 38,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>29,79; 35,68</t>
+          <t>29,85; 35,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>26,51; 32,13</t>
+          <t>25,96; 31,84</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>27,48; 32,98</t>
+          <t>27,66; 33,46</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>27,78; 32,24</t>
+          <t>27,57; 32,36</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>24,83; 29,74</t>
+          <t>25,02; 30,02</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>21,3; 26,17</t>
+          <t>21,24; 26,23</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>21,13; 26,2</t>
+          <t>21,43; 26,11</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,44; 16,99</t>
+          <t>14,33; 16,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>15,51; 18,09</t>
+          <t>15,45; 18,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,57; 17,05</t>
+          <t>14,45; 17,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,64; 18,34</t>
+          <t>12,65; 18,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>26,92; 30,08</t>
+          <t>27,2; 30,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>25,11; 28,11</t>
+          <t>25,17; 28,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>22,24; 25,32</t>
+          <t>22,42; 25,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>18,79; 24,72</t>
+          <t>18,02; 24,58</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>21,1; 23,18</t>
+          <t>21,25; 23,38</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>20,72; 22,88</t>
+          <t>20,78; 22,79</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>18,93; 20,82</t>
+          <t>18,79; 20,88</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>16,95; 21,2</t>
+          <t>17,21; 21,31</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con salud general regular o mala</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>54810</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>46281</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>33378</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>68287</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>50938</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>30907</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>34008</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>60619</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>105748</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>77189</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>67386</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>128907</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>40312; 71772</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>34376; 61538</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>23264; 45377</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>53138; 87155</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>39210; 65258</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>21398; 43777</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>23621; 46674</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>50019; 73262</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>86471; 126026</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>60212; 95391</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>51821; 84643</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>111158; 149911</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>39762</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>46481</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>42679</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>55788</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>56719</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>47259</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>50043</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>54070</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>96482</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>93740</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>92723</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>109858</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>28932; 54391</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>33398; 59607</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>31637; 55204</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>43533; 69562</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>45217; 73028</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>35427; 61058</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>37246; 64616</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>43948; 64576</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>79943; 116318</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>75189; 114620</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>74796; 111164</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>92525; 126065</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>88342</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>138922</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>91234</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>90462</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>47184</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>63108</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>44890</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>47817</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>135526</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>202030</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>136124</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>138279</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>73291; 106498</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>118840; 162670</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>74406; 109469</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>33333; 149651</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>35482; 59313</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>48490; 77173</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>34199; 59359</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>38564; 57896</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>114463; 155660</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>179740; 229415</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>117361; 159560</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>54772; 202852</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>594</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>235493</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>231843</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>220474</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>228504</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>174398</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>165083</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>164793</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>160200</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>409891</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>396927</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>385267</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>388704</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>209853; 266449</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>203280; 262309</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>196863; 249355</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>201240; 255196</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>151484; 196020</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>143847; 190691</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>143723; 188939</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>82790; 210866</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>378514; 448962</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>361968; 435348</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>349508; 421648</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>284429; 445563</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>638</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>80291</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>93255</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>135389</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>109221</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>187571</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>275417</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>231109</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>254421</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>267862</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>368672</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>366498</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>363642</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>65980; 99267</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>77871; 112899</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>114379; 157217</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>91667; 131485</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>165316; 210879</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>250337; 303655</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>206406; 260171</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>190080; 293069</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>240599; 295865</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>336396; 403059</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>331858; 401701</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>298036; 400225</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>426</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>11895</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>13257</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>8849</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>7434</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>449830</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>362448</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>314719</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>230901</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>461724</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>375705</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>323568</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>238334</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>6307; 19666</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>6812; 22315</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>4821; 16234</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>3766; 13219</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>415127; 483187</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>330886; 394351</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>280591; 344197</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>210581; 254775</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>426437; 500594</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>344071; 412794</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>290358; 358560</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>214734; 261605</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>708</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>737</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1517</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1444</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1392</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1253</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>2225</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>510593</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>570039</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>532005</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>559697</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>966639</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>944224</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>839561</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>808028</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1477233</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1514263</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1371566</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1367724</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>468504; 553987</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>527645; 617805</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>488636; 578067</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>426965; 622163</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>918711; 1024115</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>892471; 996086</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>790591; 897785</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>644545; 879464</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1412485; 1554047</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1446259; 1586247</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1298096; 1442158</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1196778; 1481764</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P7_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P7_R-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
